--- a/medicine/Mort/Journal_of_Genocide_Research/Journal_of_Genocide_Research.xlsx
+++ b/medicine/Mort/Journal_of_Genocide_Research/Journal_of_Genocide_Research.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Journal of Genocide Research est une revue académique trimestrielle à comité de lecture couvrant les études sur les génocides. Créé en 1999, pendant les six premières années, il n'a pas fait l'objet d'un examen par les pairs. Depuis décembre 2005, c'est le journal officiel de l'International Network of Genocide Scholars[1]. Les rédacteurs précédents sont Henry R. Huttenbach, Dominik J. Schaller et Jürgen Zimmerer. La revue est résumée et indexée dans Political Science Abstracts, Historical Abstracts et America: History and Life. Depuis 2021, la revue est publiée par Routledge et le rédacteur en chef est A. Dirk Moses (Université de Sydney).
+Le Journal of Genocide Research est une revue académique trimestrielle à comité de lecture couvrant les études sur les génocides. Créé en 1999, pendant les six premières années, il n'a pas fait l'objet d'un examen par les pairs. Depuis décembre 2005, c'est le journal officiel de l'International Network of Genocide Scholars. Les rédacteurs précédents sont Henry R. Huttenbach, Dominik J. Schaller et Jürgen Zimmerer. La revue est résumée et indexée dans Political Science Abstracts, Historical Abstracts et America: History and Life. Depuis 2021, la revue est publiée par Routledge et le rédacteur en chef est A. Dirk Moses (Université de Sydney).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Israel Charny publie un article intitulé "Holocaust Minimization, Anti-Israel Themes, and Antisemitism: Bias at the Journal of Genocide Research". Ses allégations ont été rejetées par les contributeurs du Journal of Genocide Research[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Israel Charny publie un article intitulé "Holocaust Minimization, Anti-Israel Themes, and Antisemitism: Bias at the Journal of Genocide Research". Ses allégations ont été rejetées par les contributeurs du Journal of Genocide Research.
 </t>
         </is>
       </c>
